--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1416.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1416.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.504464026534383</v>
+        <v>1.194099426269531</v>
       </c>
       <c r="B1">
-        <v>2.020638728173897</v>
+        <v>1.212843298912048</v>
       </c>
       <c r="C1">
-        <v>2.288537116332309</v>
+        <v>6.823255062103271</v>
       </c>
       <c r="D1">
-        <v>2.610471320603323</v>
+        <v>2.099967956542969</v>
       </c>
       <c r="E1">
-        <v>3.341592511919693</v>
+        <v>1.147705078125</v>
       </c>
     </row>
   </sheetData>
